--- a/public/upload/用户模板.xlsx
+++ b/public/upload/用户模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\AwebKF\毕业设计\项目\node_serve\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFDACE9-32F0-4D01-95D2-374782F0F997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC893D9D-8C5F-4B48-9D69-BEAABA4C5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="3495" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,55 +55,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dp11</t>
-  </si>
-  <si>
-    <t>dp12</t>
-  </si>
-  <si>
-    <t>dp13</t>
-  </si>
-  <si>
-    <t>dp14</t>
-  </si>
-  <si>
-    <t>dp15</t>
-  </si>
-  <si>
-    <t>dp16</t>
-  </si>
-  <si>
-    <t>dp17</t>
-  </si>
-  <si>
-    <t>dp18</t>
-  </si>
-  <si>
-    <t>dp19</t>
-  </si>
-  <si>
-    <t>dp20</t>
-  </si>
-  <si>
-    <t>dp21</t>
-  </si>
-  <si>
-    <t>dp22</t>
-  </si>
-  <si>
-    <t>dp23</t>
-  </si>
-  <si>
-    <t>dp24</t>
-  </si>
-  <si>
-    <t>dp25</t>
-  </si>
-  <si>
-    <t>dp26</t>
-  </si>
-  <si>
-    <t>dp27</t>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
   </si>
 </sst>
 </file>
@@ -428,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +417,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>12222</v>
+        <v>123456</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -472,7 +434,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>12223</v>
+        <v>123457</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -489,7 +451,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>12224</v>
+        <v>123458</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -506,7 +468,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12225</v>
+        <v>123459</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -518,227 +480,6 @@
         <v>124580</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>12226</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>124581</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>12227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>124582</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>12228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>124583</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>12229</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>124584</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>12230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>124585</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>12231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>124586</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12232</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>124587</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12233</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>124588</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>124589</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12235</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>124590</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12236</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>124591</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>12237</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>124592</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>12238</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>124593</v>
-      </c>
-      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/upload/用户模板.xlsx
+++ b/public/upload/用户模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\AwebKF\毕业设计\项目\node_serve\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC893D9D-8C5F-4B48-9D69-BEAABA4C5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538925C7-51BE-4B98-8455-E6C550FDCFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="3495" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,26 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +50,21 @@
   </si>
   <si>
     <t>测试4</t>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试5</t>
   </si>
 </sst>
 </file>
@@ -390,13 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -409,78 +411,95 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1807010201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>123456</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>124577</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1807010202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>123457</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>124578</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1807010203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>123458</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>124579</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1807010204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>123459</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1807010205</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>124580</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="C6">
+        <v>123460</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload/用户模板.xlsx
+++ b/public/upload/用户模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\AwebKF\毕业设计\项目\node_serve\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538925C7-51BE-4B98-8455-E6C550FDCFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547949F9-A52A-4136-B575-FD39076A5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="3495" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>测试5</t>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -400,7 +404,7 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +420,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1807010201</v>
       </c>
@@ -433,8 +440,11 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1807010202</v>
       </c>
@@ -450,8 +460,11 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1807010203</v>
       </c>
@@ -467,8 +480,11 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1807010204</v>
       </c>
@@ -484,8 +500,11 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1807010205</v>
       </c>
@@ -500,6 +519,9 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload/用户模板.xlsx
+++ b/public/upload/用户模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\AwebKF\毕业设计\项目\node_serve\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547949F9-A52A-4136-B575-FD39076A5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B175E93-68ED-449E-A5F2-8BD31D245298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="3495" windowWidth="21600" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1807010201</v>
+        <v>1807010221</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -441,12 +441,12 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1807010202</v>
+        <v>1807010222</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -461,12 +461,12 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1807010203</v>
+        <v>1807010223</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -481,12 +481,12 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1807010204</v>
+        <v>1807010224</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -501,12 +501,12 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1807010205</v>
+        <v>1807010225</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload/用户模板.xlsx
+++ b/public/upload/用户模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\AwebKF\毕业设计\项目\node_serve\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B175E93-68ED-449E-A5F2-8BD31D245298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8160FA5E-40F3-43F4-B6E7-FFE137AA5DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="1995" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,50 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
   <si>
     <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>得分</t>
   </si>
   <si>
     <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
   </si>
   <si>
     <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -393,26 +394,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -421,107 +422,128 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1807010221</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1807010222</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>123457</v>
+        <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1807010223</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>123458</v>
+        <v>123456</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1807010224</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>123459</v>
+        <v>123456</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1807010225</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>123460</v>
+        <v>123456</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
